--- a/src/com/qtpselenium/xls/C suite.xlsx
+++ b/src/com/qtpselenium/xls/C suite.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -110,8 +110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +171,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -249,6 +254,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,6 +289,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,21 +465,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -494,10 +501,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -514,14 +521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
@@ -530,7 +537,7 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -553,7 +560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -572,7 +579,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -591,7 +598,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -610,7 +617,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>

--- a/src/com/qtpselenium/xls/C suite.xlsx
+++ b/src/com/qtpselenium/xls/C suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
